--- a/biology/Zoologie/Cryptoblepharus_boutonii/Cryptoblepharus_boutonii.xlsx
+++ b/biology/Zoologie/Cryptoblepharus_boutonii/Cryptoblepharus_boutonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptoblepharus boutonii est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptoblepharus boutonii est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique des Mascareignes. Elle se rencontre :
 à Maurice sur l'île principale et sur les îles et îlots voisins ;
 à La Réunion.
-Sur l'Ile de la Réunion cette espèce a été considérée comme éteinte depuis 130 ans, mais une population a été redécouverte en 1999[2].
+Sur l'Ile de la Réunion cette espèce a été considérée comme éteinte depuis 130 ans, mais une population a été redécouverte en 1999.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sous-espèces des diverses régions ont été élevées au rang d'espèces.
 </t>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur au botaniste français Louis Bouton[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur au botaniste français Louis Bouton.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Desjardin, 1831 : Sur trois espèces de lézard du genre scinque, qui habitent l'île Maurice (Ile-de-France). Annales des Sciences Naturelles, Paris, vol. 22, p. 292-299 (texte intégral).</t>
         </is>
